--- a/arpascm/ARPA_logistics_metrics_v2.0_Scenario_3_critico.xlsx
+++ b/arpascm/ARPA_logistics_metrics_v2.0_Scenario_3_critico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.pinto\PycharmProjects\ARPA-FCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695FE0A-F0E5-4331-8F02-AFCE15897A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77E6A1-C495-41D7-923B-A7D9170FAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>file_source</t>
   </si>
@@ -121,15 +121,6 @@
     <t>1 days 18:06:24</t>
   </si>
   <si>
-    <t>2 days 14:08:00</t>
-  </si>
-  <si>
-    <t>1 days 22:06:33</t>
-  </si>
-  <si>
-    <t>2 days 13:08:30</t>
-  </si>
-  <si>
     <t>4 days 07:34:15</t>
   </si>
   <si>
@@ -164,42 +155,6 @@
   </si>
   <si>
     <t>2 days 09:54:00</t>
-  </si>
-  <si>
-    <t>3 days 08:59:01</t>
-  </si>
-  <si>
-    <t>2 days 17:00:14</t>
-  </si>
-  <si>
-    <t>3 days 06:58:39</t>
-  </si>
-  <si>
-    <t>2 days 03:40:12</t>
-  </si>
-  <si>
-    <t>1 days 07:50:23</t>
-  </si>
-  <si>
-    <t>2 days 00:41:16</t>
-  </si>
-  <si>
-    <t>1 days 01:58:22</t>
-  </si>
-  <si>
-    <t>0 days 10:01:12</t>
-  </si>
-  <si>
-    <t>0 days 22:58:26</t>
-  </si>
-  <si>
-    <t>3 days 07:07:11</t>
-  </si>
-  <si>
-    <t>2 days 06:06:00</t>
-  </si>
-  <si>
-    <t>2 days 15:05:51</t>
   </si>
   <si>
     <t>3 days 18:33:06</t>
@@ -575,9 +530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
@@ -757,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -769,37 +724,37 @@
         <v>29</v>
       </c>
       <c r="F3" s="2">
-        <v>44681.308055555557</v>
+        <v>44661.007210648153</v>
       </c>
       <c r="G3" s="2">
-        <v>44683.896944444437</v>
+        <v>44665.322662037041</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>44.1</v>
+        <v>9.02</v>
       </c>
       <c r="J3">
-        <v>1.02</v>
+        <v>9.02</v>
       </c>
       <c r="K3">
-        <v>35.07</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1048.6667262754941</v>
+        <v>1047.4942884096099</v>
       </c>
       <c r="O3">
-        <v>62.13</v>
+        <v>103.57</v>
       </c>
       <c r="P3">
-        <v>18.03</v>
+        <v>94.55</v>
       </c>
       <c r="Q3" t="s">
         <v>33</v>
@@ -808,31 +763,31 @@
         <v>34</v>
       </c>
       <c r="S3">
-        <v>46.11</v>
+        <v>95.47</v>
       </c>
       <c r="T3">
-        <v>10.02</v>
+        <v>86.45</v>
       </c>
       <c r="U3" t="s">
         <v>35</v>
       </c>
       <c r="V3">
-        <v>61.14</v>
+        <v>101.54</v>
       </c>
       <c r="W3">
-        <v>17.04</v>
+        <v>92.52</v>
       </c>
       <c r="X3">
         <v>24.2</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>73.23</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -840,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -852,22 +807,22 @@
         <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>44661.007210648153</v>
+        <v>44700.745497685188</v>
       </c>
       <c r="G4" s="2">
-        <v>44665.322662037041</v>
+        <v>44702.661481481482</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>9.02</v>
+        <v>24.07</v>
       </c>
       <c r="J4">
-        <v>9.02</v>
+        <v>11.06</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.01</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -876,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1047.4942884096099</v>
+        <v>1014.621259544016</v>
       </c>
       <c r="O4">
-        <v>103.57</v>
+        <v>45.98</v>
       </c>
       <c r="P4">
-        <v>94.55</v>
+        <v>21.91</v>
       </c>
       <c r="Q4" t="s">
         <v>36</v>
@@ -891,31 +846,31 @@
         <v>37</v>
       </c>
       <c r="S4">
-        <v>95.47</v>
+        <v>23.99</v>
       </c>
       <c r="T4">
-        <v>86.45</v>
+        <v>12.93</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
       </c>
       <c r="V4">
-        <v>101.54</v>
+        <v>44</v>
       </c>
       <c r="W4">
-        <v>92.52</v>
+        <v>19.93</v>
       </c>
       <c r="X4">
         <v>24.2</v>
       </c>
       <c r="Y4">
-        <v>70.349999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>73.23</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>72.87</v>
+        <v>0.28000000000000108</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -926,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -935,22 +890,22 @@
         <v>29</v>
       </c>
       <c r="F5" s="2">
-        <v>44700.745497685188</v>
+        <v>44723.340416666673</v>
       </c>
       <c r="G5" s="2">
-        <v>44702.661481481482</v>
+        <v>44726.335462962961</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>24.07</v>
+        <v>48.92</v>
       </c>
       <c r="J5">
-        <v>11.06</v>
+        <v>37.94</v>
       </c>
       <c r="K5">
-        <v>13.01</v>
+        <v>10.97</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -959,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1014.621259544016</v>
+        <v>980.78788035038622</v>
       </c>
       <c r="O5">
-        <v>45.98</v>
+        <v>71.88</v>
       </c>
       <c r="P5">
-        <v>21.91</v>
+        <v>22.96</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
@@ -974,19 +929,19 @@
         <v>40</v>
       </c>
       <c r="S5">
-        <v>23.99</v>
+        <v>51.92</v>
       </c>
       <c r="T5">
-        <v>12.93</v>
+        <v>13.98</v>
       </c>
       <c r="U5" t="s">
         <v>41</v>
       </c>
       <c r="V5">
-        <v>44</v>
+        <v>68.87</v>
       </c>
       <c r="W5">
-        <v>19.93</v>
+        <v>19.95</v>
       </c>
       <c r="X5">
         <v>24.2</v>
@@ -995,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.75999999999999979</v>
       </c>
       <c r="AA5">
-        <v>0.28000000000000108</v>
+        <v>0.30000000000000071</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -1006,10 +961,10 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1018,37 +973,37 @@
         <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>44723.340416666673</v>
+        <v>44700.14634259259</v>
       </c>
       <c r="G6" s="2">
-        <v>44726.335462962961</v>
+        <v>44702.683136574073</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>48.92</v>
+        <v>37.94</v>
       </c>
       <c r="J6">
-        <v>37.94</v>
+        <v>14.93</v>
       </c>
       <c r="K6">
-        <v>10.97</v>
+        <v>11.02</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>980.78788035038622</v>
+        <v>1044.318454512339</v>
       </c>
       <c r="O6">
-        <v>71.88</v>
+        <v>60.88</v>
       </c>
       <c r="P6">
-        <v>22.96</v>
+        <v>22.94</v>
       </c>
       <c r="Q6" t="s">
         <v>42</v>
@@ -1057,19 +1012,19 @@
         <v>43</v>
       </c>
       <c r="S6">
-        <v>51.92</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="T6">
-        <v>13.98</v>
+        <v>13.96</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
       </c>
       <c r="V6">
-        <v>68.87</v>
+        <v>57.9</v>
       </c>
       <c r="W6">
-        <v>19.95</v>
+        <v>19.96</v>
       </c>
       <c r="X6">
         <v>24.2</v>
@@ -1078,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.75999999999999979</v>
+        <v>0.74000000000000021</v>
       </c>
       <c r="AA6">
-        <v>0.30000000000000071</v>
+        <v>0.31000000000000227</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -1089,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1101,70 +1056,70 @@
         <v>29</v>
       </c>
       <c r="F7" s="2">
-        <v>44700.14634259259</v>
+        <v>44568.981817129628</v>
       </c>
       <c r="G7" s="2">
-        <v>44702.683136574073</v>
+        <v>44571.322638888887</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>37.94</v>
+        <v>14.06</v>
       </c>
       <c r="J7">
-        <v>14.93</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="K7">
-        <v>11.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="L7">
-        <v>11.99</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1044.318454512339</v>
+        <v>1021.389308400584</v>
       </c>
       <c r="O7">
-        <v>60.88</v>
+        <v>56.18</v>
       </c>
       <c r="P7">
-        <v>22.94</v>
+        <v>42.12</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="S7">
-        <v>39.909999999999997</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="T7">
-        <v>13.96</v>
+        <v>26.08</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="V7">
-        <v>57.9</v>
+        <v>42.11</v>
       </c>
       <c r="W7">
-        <v>19.96</v>
+        <v>33.06</v>
       </c>
       <c r="X7">
         <v>24.2</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.74000000000000021</v>
+        <v>12.86</v>
       </c>
       <c r="AA7">
-        <v>0.31000000000000227</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -1172,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1184,22 +1139,22 @@
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>44701.96497685185</v>
+        <v>44659.70821759259</v>
       </c>
       <c r="G8" s="2">
-        <v>44705.33929398148</v>
+        <v>44663.481203703705</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>60.95</v>
+        <v>71.03</v>
       </c>
       <c r="J8">
-        <v>51.99</v>
+        <v>60.57</v>
       </c>
       <c r="K8">
-        <v>8.9600000000000009</v>
+        <v>10.46</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1208,34 +1163,34 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1024.376130755493</v>
+        <v>1073.538003127707</v>
       </c>
       <c r="O8">
-        <v>80.98</v>
+        <v>90.55</v>
       </c>
       <c r="P8">
-        <v>20.03</v>
+        <v>19.52</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S8">
-        <v>65</v>
+        <v>70.22</v>
       </c>
       <c r="T8">
-        <v>13.01</v>
+        <v>9.65</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V8">
-        <v>78.98</v>
+        <v>87.6</v>
       </c>
       <c r="W8">
-        <v>18.03</v>
+        <v>16.57</v>
       </c>
       <c r="X8">
         <v>24.2</v>
@@ -1255,10 +1210,10 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1267,22 +1222,22 @@
         <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>44724.050925925927</v>
+        <v>44627.981817129628</v>
       </c>
       <c r="G9" s="2">
-        <v>44726.203842592593</v>
+        <v>44630.322638888887</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>31.75</v>
+        <v>14.06</v>
       </c>
       <c r="J9">
-        <v>22.85</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="K9">
-        <v>8.9</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1291,46 +1246,46 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>987.42259296966859</v>
+        <v>1021.389308400584</v>
       </c>
       <c r="O9">
-        <v>51.67</v>
+        <v>56.18</v>
       </c>
       <c r="P9">
-        <v>19.920000000000002</v>
+        <v>42.12</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="S9">
-        <v>31.84</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="T9">
-        <v>8.99</v>
+        <v>26.08</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="V9">
-        <v>48.69</v>
+        <v>42.11</v>
       </c>
       <c r="W9">
-        <v>16.940000000000001</v>
+        <v>33.06</v>
       </c>
       <c r="X9">
         <v>24.2</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -1338,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1350,19 +1305,19 @@
         <v>29</v>
       </c>
       <c r="F10" s="2">
-        <v>44704.217557870368</v>
+        <v>44783.007210648146</v>
       </c>
       <c r="G10" s="2">
-        <v>44705.299756944441</v>
+        <v>44787.322662037041</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>7.97</v>
+        <v>9.02</v>
       </c>
       <c r="J10">
-        <v>7.97</v>
+        <v>9.02</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1374,46 +1329,46 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>986.40446198132622</v>
+        <v>1047.4942884096099</v>
       </c>
       <c r="O10">
-        <v>25.97</v>
+        <v>103.57</v>
       </c>
       <c r="P10">
-        <v>18</v>
+        <v>94.55</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="S10">
-        <v>10.02</v>
+        <v>95.47</v>
       </c>
       <c r="T10">
-        <v>10.02</v>
+        <v>86.45</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="V10">
-        <v>22.97</v>
+        <v>101.54</v>
       </c>
       <c r="W10">
-        <v>15</v>
+        <v>92.52</v>
       </c>
       <c r="X10">
         <v>24.2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>73.23</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -1421,7 +1376,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1433,70 +1388,70 @@
         <v>29</v>
       </c>
       <c r="F11" s="2">
-        <v>44709.080011574071</v>
+        <v>44814.007210648146</v>
       </c>
       <c r="G11" s="2">
-        <v>44712.376666666663</v>
+        <v>44818.322662037041</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>59.08</v>
+        <v>9.02</v>
       </c>
       <c r="J11">
-        <v>5.94</v>
+        <v>9.02</v>
       </c>
       <c r="K11">
-        <v>38.119999999999997</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>13.02</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1038.009468153821</v>
+        <v>1047.4942884096099</v>
       </c>
       <c r="O11">
-        <v>79.12</v>
+        <v>103.57</v>
       </c>
       <c r="P11">
-        <v>20.04</v>
+        <v>94.55</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="S11">
-        <v>54.1</v>
+        <v>95.47</v>
       </c>
       <c r="T11">
-        <v>10.039999999999999</v>
+        <v>86.45</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="V11">
-        <v>63.1</v>
+        <v>101.54</v>
       </c>
       <c r="W11">
-        <v>19.04</v>
+        <v>92.52</v>
       </c>
       <c r="X11">
         <v>24.2</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>73.23</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -1507,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1516,10 +1471,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="2">
-        <v>44933.981817129628</v>
+        <v>44870.981817129628</v>
       </c>
       <c r="G12" s="2">
-        <v>44936.322638888887</v>
+        <v>44873.322638888887</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1580,89 +1535,6 @@
       </c>
       <c r="AA12">
         <v>13.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45024.70821759259</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45028.481203703697</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>71.03</v>
-      </c>
-      <c r="J13">
-        <v>60.57</v>
-      </c>
-      <c r="K13">
-        <v>10.46</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1073.538003127707</v>
-      </c>
-      <c r="O13">
-        <v>90.55</v>
-      </c>
-      <c r="P13">
-        <v>19.52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13">
-        <v>70.22</v>
-      </c>
-      <c r="T13">
-        <v>9.65</v>
-      </c>
-      <c r="U13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13">
-        <v>87.6</v>
-      </c>
-      <c r="W13">
-        <v>16.57</v>
-      </c>
-      <c r="X13">
-        <v>24.2</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
